--- a/eCase Update Planner.xlsx
+++ b/eCase Update Planner.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{D7862688-CE76-45AC-BC9C-199CFC8F5535}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4590FE6B-99DE-4E99-A26A-18031FAF3E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1053,7 +1053,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1369,19 +1369,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
       </c>
       <c r="G5" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1389,19 +1389,19 @@
         <v>25</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6" s="7">
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1409,10 +1409,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7" s="7">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E8" s="7">
         <v>0</v>
@@ -1449,10 +1449,10 @@
         <v>28</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -1469,10 +1469,10 @@
         <v>29</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E10" s="7">
         <v>0</v>
@@ -1489,10 +1489,10 @@
         <v>17</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E11" s="7">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E12" s="7">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>31</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E13" s="7">
         <v>0</v>
@@ -1549,10 +1549,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
@@ -1569,10 +1569,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="9">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D15" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E15" s="7">
         <v>0</v>
@@ -1589,10 +1589,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E16" s="7">
         <v>0</v>
@@ -1609,10 +1609,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E17" s="7">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E18" s="7">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         <v>32</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E19" s="7">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>33</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7">
         <v>0</v>
@@ -1689,10 +1689,10 @@
         <v>22</v>
       </c>
       <c r="C21" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>23</v>
       </c>
       <c r="C22" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D22" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>34</v>
       </c>
       <c r="C23" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E23" s="7">
         <v>0</v>
@@ -1749,10 +1749,10 @@
         <v>35</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D24" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E24" s="7">
         <v>0</v>
@@ -1769,10 +1769,10 @@
         <v>36</v>
       </c>
       <c r="C25" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D25" s="7">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E25" s="7">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>37</v>
       </c>
       <c r="C26" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D26" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E26" s="7">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>38</v>
       </c>
       <c r="C27" s="7">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D27" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E27" s="7">
         <v>0</v>

--- a/eCase Update Planner.xlsx
+++ b/eCase Update Planner.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4590FE6B-99DE-4E99-A26A-18031FAF3E11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB537B3-0AD3-41E1-9736-8C406705AD78}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
+    <sheet name="February" sheetId="1" r:id="rId1"/>
+    <sheet name="March " sheetId="2" r:id="rId2"/>
+    <sheet name="April " sheetId="3" r:id="rId3"/>
+    <sheet name="May " sheetId="4" r:id="rId4"/>
+    <sheet name="June" sheetId="5" r:id="rId5"/>
+    <sheet name="July " sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="Actual">(PeriodInActual*('Project Planner'!$E1&gt;0))*PeriodInPlan</definedName>
-    <definedName name="ActualBeyond">PeriodInActual*('Project Planner'!$E1&gt;0)</definedName>
+    <definedName name="Actual">(PeriodInActual*(February!$E1&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond">PeriodInActual*(February!$E1&gt;0)</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
-    <definedName name="PercentCompleteBeyond">('Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1)*('Project Planner'!$E1&gt;0))*(('Project Planner'!A$4&lt;(INT('Project Planner'!$E1+'Project Planner'!$F1*'Project Planner'!$G1)))+('Project Planner'!A$4='Project Planner'!$E1))*('Project Planner'!$G1&gt;0)</definedName>
-    <definedName name="period_selected">'Project Planner'!$H$2</definedName>
-    <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
-    <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
-    <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
-    <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
+    <definedName name="PercentCompleteBeyond">(February!A$4=MEDIAN(February!A$4,February!$E1,February!$E1+February!$F1)*(February!$E1&gt;0))*((February!A$4&lt;(INT(February!$E1+February!$F1*February!$G1)))+(February!A$4=February!$E1))*(February!$G1&gt;0)</definedName>
+    <definedName name="period_selected">February!$H$2</definedName>
+    <definedName name="PeriodInActual">February!A$4=MEDIAN(February!A$4,February!$E1,February!$E1+February!$F1-1)</definedName>
+    <definedName name="PeriodInPlan">February!A$4=MEDIAN(February!A$4,February!$C1,February!$C1+February!$D1-1)</definedName>
+    <definedName name="Plan">PeriodInPlan*(February!$C1&gt;0)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">February!$3:$4</definedName>
+    <definedName name="TitleRegion..BO60">February!$B$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="40">
   <si>
     <t>PERIODS</t>
   </si>
@@ -663,7 +668,717 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="7"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color theme="7"/>
+        </top>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1053,7 +1768,7 @@
   <dimension ref="B1:BO30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1267,102 +1982,38 @@
       <c r="AI4" s="3">
         <v>28</v>
       </c>
-      <c r="AJ4" s="3">
-        <v>29</v>
-      </c>
-      <c r="AK4" s="3">
-        <v>30</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="3">
-        <v>32</v>
-      </c>
-      <c r="AN4" s="3">
-        <v>33</v>
-      </c>
-      <c r="AO4" s="3">
-        <v>34</v>
-      </c>
-      <c r="AP4" s="3">
-        <v>35</v>
-      </c>
-      <c r="AQ4" s="3">
-        <v>36</v>
-      </c>
-      <c r="AR4" s="3">
-        <v>37</v>
-      </c>
-      <c r="AS4" s="3">
-        <v>38</v>
-      </c>
-      <c r="AT4" s="3">
-        <v>39</v>
-      </c>
-      <c r="AU4" s="3">
-        <v>40</v>
-      </c>
-      <c r="AV4" s="3">
-        <v>41</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>42</v>
-      </c>
-      <c r="AX4" s="3">
-        <v>43</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>44</v>
-      </c>
-      <c r="AZ4" s="3">
-        <v>45</v>
-      </c>
-      <c r="BA4" s="3">
-        <v>46</v>
-      </c>
-      <c r="BB4" s="3">
-        <v>47</v>
-      </c>
-      <c r="BC4" s="3">
-        <v>48</v>
-      </c>
-      <c r="BD4" s="3">
-        <v>49</v>
-      </c>
-      <c r="BE4" s="3">
-        <v>50</v>
-      </c>
-      <c r="BF4" s="3">
-        <v>51</v>
-      </c>
-      <c r="BG4" s="3">
-        <v>52</v>
-      </c>
-      <c r="BH4" s="3">
-        <v>53</v>
-      </c>
-      <c r="BI4" s="3">
-        <v>54</v>
-      </c>
-      <c r="BJ4" s="3">
-        <v>55</v>
-      </c>
-      <c r="BK4" s="3">
-        <v>56</v>
-      </c>
-      <c r="BL4" s="3">
-        <v>57</v>
-      </c>
-      <c r="BM4" s="3">
-        <v>58</v>
-      </c>
-      <c r="BN4" s="3">
-        <v>59</v>
-      </c>
-      <c r="BO4" s="3">
-        <v>60</v>
-      </c>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
@@ -1415,13 +2066,13 @@
         <v>10</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F7" s="7">
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -1899,38 +2550,38 @@
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
-    <cfRule type="expression" dxfId="9" priority="1">
+    <cfRule type="expression" dxfId="59" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="3">
+    <cfRule type="expression" dxfId="58" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="57" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="56" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="55" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="54" priority="7">
       <formula>H$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="11">
+    <cfRule type="expression" dxfId="53" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="12">
+    <cfRule type="expression" dxfId="52" priority="12">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:BO31">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="51" priority="2">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="0" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1966,4 +2617,4264 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE3F887-B19C-4FC0-809E-5A0A7711D0B8}">
+  <dimension ref="B1:BO30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>14</v>
+      </c>
+      <c r="V4" s="3">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:BO30">
+    <cfRule type="expression" dxfId="49" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="47" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:BO31">
+    <cfRule type="expression" dxfId="41" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="40" priority="8">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{86B61D73-A316-4E2D-A8FB-510FC4B2F7B1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{291C514D-3FFF-47D6-B398-3F650A617DDB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{5F311785-7582-49AE-B246-7505E6CC8061}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{3D6AB2E1-AF20-4BAB-9560-614C6DA7B5C0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{27AC0106-33FC-4590-A264-EDB17CF9537D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{1473E786-CA01-4B6A-A7BC-02A412C8742C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{83C13846-4A03-4033-B580-E1C086F6ED95}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{DC40501B-8C84-44A6-85C2-F079EC59F59A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{7E0D0577-373A-47DF-9614-967349E8815B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{DDB696E4-8ED9-48A4-B269-E3DE7B3CBB44}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{B13DC26F-296C-4FBC-A227-58B2F038955C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{11133487-FFAD-4798-98DE-0A49E0FD55E1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{CE4CDC3F-CEBA-4350-985A-4C3FB62C3FC6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{79D1EAF1-D8E5-468D-92C0-3179BE3A13BE}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{469090CA-ED2C-40C4-9F5B-A40509E536EA}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{DE2CFB6A-A251-4212-8ABF-8410AA06D27D}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD37FFB-D9DC-4253-AAE8-16757AF47683}">
+  <dimension ref="B1:BO30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>14</v>
+      </c>
+      <c r="V4" s="3">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:BO30">
+    <cfRule type="expression" dxfId="39" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:BO31">
+    <cfRule type="expression" dxfId="31" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="30" priority="8">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{DB125778-754C-4B19-B4A9-AD308626417E}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{7AA582E3-1B84-4047-A1F8-AECA95B642DB}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{1F08E39B-95EA-46E9-A46D-565ED58DA133}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{B09436FC-4924-4636-8E3F-7BA7C400A89C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{8126F9E7-72CD-4A72-84B8-AD32CC12F53F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{C8CAD13D-BA1F-4B46-A85B-7B9E69828771}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{90B0C6B5-14E2-40CF-916E-0AC66089A107}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{D06041A2-BEA2-4143-B9B2-EABCC516B2D0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{3D886E05-3623-40B0-A910-AED3D7B8B2DE}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{D5F69D02-CBC2-4508-833E-5D3C0904EC4E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{BEC1FD1A-0CF8-4319-BD46-E6B873E4E597}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{E1657072-E530-43D5-B78B-A6635CFF2FBB}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{0DC63174-2E62-4076-82E0-89BC6446B733}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{9ADBCF82-6E26-402C-A293-D2C6B035524F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{597F9DDB-090D-4A78-8AAE-90ED0A3719D2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{B7C7BDFB-C6D5-480E-99AC-BD602483A7FA}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33AA9FC-4D84-4A1F-97E1-D963F7C0FE90}">
+  <dimension ref="B1:BO30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>14</v>
+      </c>
+      <c r="V4" s="3">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:BO30">
+    <cfRule type="expression" dxfId="29" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:BO31">
+    <cfRule type="expression" dxfId="21" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="20" priority="8">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{5425FE68-9EA8-4411-8A44-1CBF28F5F49D}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{65049DD0-B72A-4FE9-82E9-CE177B60E319}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{9142E355-B9EF-4F4E-8F16-163201D56632}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{572A72BD-A570-4C8E-B67D-2F5A255E9D90}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{392E6DDB-4D11-4A5D-B232-4AB150B5B577}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{0A59E15B-7E33-4E71-976B-A7C66436A47B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{596AE1A8-C883-42FE-A672-9993CAFFD547}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{DAFCD8B4-3896-4B92-A1AB-052E4E57A401}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{2E2C0505-7520-4DB3-BA81-86865ADBA229}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{04D51894-7971-46CE-ADC6-499B2AD3246B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{F85EAE25-604E-4743-86E4-F4FDBBE14D1D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{4ABB27A7-C09E-4369-BD0E-FC6756EB57D4}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{488BABCF-D6DB-407A-A2A4-F52D3CA12E1A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{F092FAC6-11DE-4DC3-A636-CEA38FA5D3D1}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{97340E6E-51C9-4121-8814-7017319F8952}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{B251C1F4-9739-4E40-815A-46265384A1B7}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56F6172-7C5D-4FB8-B8E9-A994A9ECD96F}">
+  <dimension ref="B1:BO30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>14</v>
+      </c>
+      <c r="V4" s="3">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:BO30">
+    <cfRule type="expression" dxfId="19" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:BO31">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{4D3DA5D3-F7EA-4EAB-B598-A7B26BC02EAA}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{9645F4C0-BED5-4546-83F1-CEF91576BF50}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{CBB7A410-E401-4A35-ABEC-E0B1D825A118}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{99FEAF0F-DF70-4E5F-A166-9E50DC87A680}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{9DC14705-0A25-43F2-AF25-E3178879BA2F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{7F5B2839-FDA5-4396-AA33-916B41E0E93E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{F55F556A-1129-44B5-82A8-7EAE3D30ACC3}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{E40A22A3-6638-438D-89F3-0A3477E3E575}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{4D1DE349-D4D9-42CC-B28C-14296C4A0A2D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{522C738D-EB7D-425E-8933-73A538BA8278}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{C3F7589E-A83C-41EE-9EA8-16A80729769D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{8A838F55-1BA4-40A1-91F5-2C483204BE4C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{809030F3-3084-4329-B4C2-284CF8328BD7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{BB2C09E9-5E50-497A-9DA5-B1F0982EB75E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{95450FB1-FB2A-4736-B0D5-F73A5710D359}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{378681F9-4617-44F1-BB13-284095FFA071}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02337E2E-1EFC-439A-9536-54D686440781}">
+  <dimension ref="B1:BO30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="1.125" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="15">
+        <v>6</v>
+      </c>
+      <c r="J2" s="16"/>
+      <c r="K2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="24"/>
+      <c r="AK2" s="24"/>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3">
+        <v>4</v>
+      </c>
+      <c r="L4" s="3">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3">
+        <v>7</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8</v>
+      </c>
+      <c r="P4" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>10</v>
+      </c>
+      <c r="R4" s="3">
+        <v>11</v>
+      </c>
+      <c r="S4" s="3">
+        <v>12</v>
+      </c>
+      <c r="T4" s="3">
+        <v>13</v>
+      </c>
+      <c r="U4" s="3">
+        <v>14</v>
+      </c>
+      <c r="V4" s="3">
+        <v>15</v>
+      </c>
+      <c r="W4" s="3">
+        <v>16</v>
+      </c>
+      <c r="X4" s="3">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>23</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>24</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>25</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>26</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>27</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>28</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>30</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>31</v>
+      </c>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3"/>
+      <c r="BM4" s="3"/>
+      <c r="BN4" s="3"/>
+      <c r="BO4" s="3"/>
+    </row>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="7">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10</v>
+      </c>
+      <c r="E5" s="7">
+        <v>8</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
+        <v>8</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="7">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9</v>
+      </c>
+      <c r="D8" s="7">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="7">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7">
+        <v>11</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="7">
+        <v>11</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="7">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
+        <v>16</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="7">
+        <v>17</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>21</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="7">
+        <v>21</v>
+      </c>
+      <c r="D21" s="7">
+        <v>22</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22</v>
+      </c>
+      <c r="D22" s="7">
+        <v>24</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="7">
+        <v>22</v>
+      </c>
+      <c r="D23" s="7">
+        <v>24</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="7">
+        <v>23</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25</v>
+      </c>
+      <c r="E25" s="7">
+        <v>0</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="7">
+        <v>21</v>
+      </c>
+      <c r="D26" s="7">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7">
+        <v>21</v>
+      </c>
+      <c r="D27" s="7">
+        <v>23</v>
+      </c>
+      <c r="E27" s="7">
+        <v>0</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <v>5</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
+        <v>5</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AP2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="H5:BO30">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="10">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:BO31">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:BO4">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="16">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{58B2C6A9-07F3-4230-960C-979120B02F5A}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{5BB98B6D-A891-4597-A33C-E8536A2EBC15}">
+      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{490EB80B-8E13-4906-9BC5-4CFB7C9B5B4E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{A86241FA-5CE8-47B1-9175-0F4A5A4BDE1E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{991DC0B3-35A4-4C1F-89D3-095B27BAC3D7}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{10DF4BE2-BFFC-4773-9112-BBE56BCA9DBD}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{FEDB4EA2-EC04-49A7-9FB0-D61372D8FD9E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{6180CB43-9D57-4EF1-AE8E-3359CB802466}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{E3540C7E-5E9A-4FB8-9424-3B6699493F59}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{73BB3A7B-F654-47DE-A927-66586BE286A9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{5742ED11-649E-4461-938C-E27D534DA473}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{D3FA550E-480A-4C3B-9D51-05FC55023255}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{3DB90919-BF08-482D-8267-ACE8A10393EF}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{D9AC8921-0A8E-4B73-B502-825B38598EA9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{16F1C940-00D1-4B1F-B637-652765EE357C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{9714F24D-D81C-4514-85DF-4B4A4D444901}"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>